--- a/参考文档(附录1).xlsx
+++ b/参考文档(附录1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\covscript\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zz8zcc\Documents\GitHub\covscript-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="125">
   <si>
     <t>ASCII 值</t>
   </si>
@@ -488,13 +488,21 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,8 +636,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -640,8 +648,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -971,7 +979,8 @@
     <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1"/>
@@ -991,42 +1000,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1250,10 +1259,10 @@
       <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="6" t="s">
         <v>120</v>
       </c>
@@ -1266,9 +1275,9 @@
       <c r="M7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1283,12 +1292,12 @@
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="6" t="s">
         <v>62</v>
       </c>
@@ -1304,9 +1313,9 @@
       <c r="M8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1328,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
@@ -1348,9 +1357,9 @@
       <c r="M9" s="6">
         <v>16</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1392,9 +1401,9 @@
       <c r="M10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -1494,11 +1503,11 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="6">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17</v>
+      <c r="H13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="J13" s="6">
         <v>3</v>
@@ -2172,6 +2181,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B17:O18"/>
     <mergeCell ref="C19:D19"/>
@@ -2185,11 +2199,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/参考文档(附录1).xlsx
+++ b/参考文档(附录1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zz8zcc\Documents\GitHub\covscript-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\covscript-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="123">
   <si>
     <t>ASCII 值</t>
   </si>
@@ -488,14 +488,6 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,6 +631,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,9 +641,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,7 +960,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,42 +992,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1259,10 +1251,10 @@
       <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="6" t="s">
         <v>120</v>
       </c>
@@ -1292,12 +1284,12 @@
       <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="6" t="s">
         <v>62</v>
       </c>
@@ -1334,28 +1326,28 @@
         <v>20</v>
       </c>
       <c r="F9" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="6">
         <v>2</v>
       </c>
       <c r="K9" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L9" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1503,11 +1495,11 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>124</v>
+      <c r="H13" s="6">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15</v>
       </c>
       <c r="J13" s="6">
         <v>3</v>
@@ -1558,47 +1550,47 @@
       <c r="P14" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
@@ -1637,10 +1629,10 @@
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
@@ -1679,10 +1671,10 @@
       <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1721,10 +1713,10 @@
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1763,10 +1755,10 @@
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
@@ -1805,10 +1797,10 @@
       <c r="B24" s="2">
         <v>32</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
@@ -1847,10 +1839,10 @@
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1889,10 +1881,10 @@
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
@@ -1931,10 +1923,10 @@
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="5" t="s">
         <v>33</v>
       </c>
@@ -1973,10 +1965,10 @@
       <c r="B28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
@@ -2015,10 +2007,10 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="5" t="s">
         <v>33</v>
       </c>
@@ -2057,10 +2049,10 @@
       <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="4" t="s">
         <v>32</v>
       </c>
@@ -2099,10 +2091,10 @@
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="5" t="s">
         <v>33</v>
       </c>
@@ -2141,10 +2133,10 @@
       <c r="B32" s="2">
         <v>127</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="5" t="s">
         <v>33</v>
       </c>
@@ -2181,11 +2173,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B17:O18"/>
     <mergeCell ref="C19:D19"/>
@@ -2199,6 +2186,11 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
